--- a/Template POP Gratis.xlsx
+++ b/Template POP Gratis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pindahan\Jalal\Programming\WEB\Mail Merge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B1EB50-B8CE-4700-A781-B1D188BFE6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34140B5-F919-42B9-A291-95DEE40F1EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,10 +64,10 @@
     <t>PROMO</t>
   </si>
   <si>
-    <t>JUDUL</t>
-  </si>
-  <si>
     <t>BELI 3 GRATIS 1</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -528,7 +528,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="3">
         <v>6000</v>
